--- a/biology/Zoologie/Hemigrammus_stictus/Hemigrammus_stictus.xlsx
+++ b/biology/Zoologie/Hemigrammus_stictus/Hemigrammus_stictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemigrammus stictus est une espèce de poissons d'eau douce de la famille des Characidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hemigrammus stictus a été initialement décrite en 1909 par Marion Lee Durbin (d) sous le protonyme d’Hyphessobrycon stictus[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hemigrammus stictus a été initialement décrite en 1909 par Marion Lee Durbin (d) sous le protonyme d’Hyphessobrycon stictus.  
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Environnement, climat et gamme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eau douce benthopélagique, gamme de pH : 6,0 - 7,0[3]. Tropical ; 23 °C - 27 °C[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eau douce benthopélagique, gamme de pH : 6,0 - 7,0. Tropical ; 23 °C - 27 °C.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemigrammus stictus mesure jusqu'à 43 mm[3], toutefois il aurait été enregistré des tailles allant jusqu'à 60 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemigrammus stictus mesure jusqu'à 43 mm, toutefois il aurait été enregistré des tailles allant jusqu'à 60 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemigrammus stictus se rencontre en Amérique du Sud, dans les bassins de l'Amazone, du Rio Negro et de l'Orénoque, ainsi que dans les rivières côtières en Guyane[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemigrammus stictus se rencontre en Amérique du Sud, dans les bassins de l'Amazone, du Rio Negro et de l'Orénoque, ainsi que dans les rivières côtières en Guyane.
 </t>
         </is>
       </c>
@@ -637,12 +657,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comportement
-Grégaires, sociable, adapté à la vie en aquarium.
-Alimentation
-Omnivore, artémies.
-Difficulté en aquariophilie
-1 à 2/5.
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégaires, sociable, adapté à la vie en aquarium.
 </t>
         </is>
       </c>
@@ -668,12 +689,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Menace pour l'Homme</t>
+          <t>Aquariophilie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inoffensif.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omnivore, artémies.
 </t>
         </is>
       </c>
@@ -699,10 +726,82 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Difficulté en aquariophilie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 à 2/5.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hemigrammus_stictus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemigrammus_stictus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Menace pour l'Homme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inoffensif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hemigrammus_stictus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemigrammus_stictus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) Marion Lee Durbin, « Reports on the expedition to British Guiana of the Indiana University and the Carnegie Museum, 1908. Report No. 2. A new genus and twelve new species of tetragonopterid characins », Annals of the Carnegie Museum of Natural History, Pittsburgh, Inconnu, vol. 6, no 1,‎ 17 août 1909, p. 55-72 (ISSN 0097-4463 et 1943-6300, OCLC 1261514, lire en ligne)</t>
         </is>
